--- a/biology/Botanique/Lanonia/Lanonia.xlsx
+++ b/biology/Botanique/Lanonia/Lanonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lanonia est un genre de plantes de la famille des Arecaceae (palmiers), de la sopus-famille des Coryphoideae, dans la tribu des Trachycarpeae et la sous-tribu des Livistoninae.
-Ce sont des palmiers de type éventail ayant une aire de répartition indigène enregistrée du sud de la Chine à l’Indochine et se trouvent également à Java[2].
+Ce sont des palmiers de type éventail ayant une aire de répartition indigène enregistrée du sud de la Chine à l’Indochine et se trouvent également à Java.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description et phylogénie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Lanonia sont des palmiers en éventail : à l'origine huit espèces, six endémiques du Vietnam, ont été transférées depuis genre similaire Licuala qui s'est avéré non monophylétique ; les espèces transférées dans le genre Lanonia étant plus étroitement apparentées au genre Johannesteijsmannia[1]. Dans cette étude phylogénétique, sept régions géniques ont été analysées, résolvant de manière significative les relations entre les genres dans la sous-tribu des Livistoninae.
-Ces palmiers sont dioïques, mais pas exclusivement dans les spécimens cultivés : contrairement aux espèces de Licuala, qui possèdent des fleurs hermaphrodites. Les inflorescences staminées et pistillées sont dimorphes en taille, forme et ramification. Les feuilles de Lanonia peuvent être mieux distinguées par les pétioles, qui semblent se rétrécir dans les limbes de chaque feuille. Comme pour les autres palmiers, cette structure de feuilles se prête à la production de chapeaux coniques vietnamiens[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Lanonia sont des palmiers en éventail : à l'origine huit espèces, six endémiques du Vietnam, ont été transférées depuis genre similaire Licuala qui s'est avéré non monophylétique ; les espèces transférées dans le genre Lanonia étant plus étroitement apparentées au genre Johannesteijsmannia. Dans cette étude phylogénétique, sept régions géniques ont été analysées, résolvant de manière significative les relations entre les genres dans la sous-tribu des Livistoninae.
+Ces palmiers sont dioïques, mais pas exclusivement dans les spécimens cultivés : contrairement aux espèces de Licuala, qui possèdent des fleurs hermaphrodites. Les inflorescences staminées et pistillées sont dimorphes en taille, forme et ramification. Les feuilles de Lanonia peuvent être mieux distinguées par les pétioles, qui semblent se rétrécir dans les limbes de chaque feuille. Comme pour les autres palmiers, cette structure de feuilles se prête à la production de chapeaux coniques vietnamiens.
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Coryphoideae
 Tribu des Trachycarpeae
 Sous-tribu des Livistoninae 
-Ce genre partage sa sous-tribu avec cinq autres genres : Livistona, Licuala, Johannesteijsmannia, Pholidocarpus, Saribus[4].
+Ce genre partage sa sous-tribu avec cinq autres genres : Livistona, Licuala, Johannesteijsmannia, Pholidocarpus, Saribus.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Espèce</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Plants of the World Online avec (février 2021) 13 espèces acceptées[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World Online avec (février 2021) 13 espèces acceptées :
 Lanonia acaulis (A.J.Hend., N.K.Ban et N.Q.Dung) A.J.Hend. &amp; C.D.Bacon
 Lanonia batoensis A.J.Hend. &amp; N.Q.Dung
 Lanonia calciphila (Becc.) A.J.Hend. &amp; C.D.Bacon
